--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\New folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDA0AD-632E-4469-AE3C-ABE7C788C028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
@@ -23,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$O$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -189,17 +183,50 @@
     <t>Gpl-01</t>
   </si>
   <si>
-    <t>Gml-00</t>
+    <t>BLEND NO.</t>
+  </si>
+  <si>
+    <t>03.05.2021</t>
+  </si>
+  <si>
+    <t>01.05.2021</t>
+  </si>
+  <si>
+    <t>Part no. 03</t>
+  </si>
+  <si>
+    <t>04.05.2021</t>
+  </si>
+  <si>
+    <t>Part no. 04</t>
+  </si>
+  <si>
+    <t>05.05.2021</t>
+  </si>
+  <si>
+    <t>06.05.2021</t>
+  </si>
+  <si>
+    <t>07.05.2021</t>
+  </si>
+  <si>
+    <t>12.05.2021</t>
+  </si>
+  <si>
+    <t>Gml-1</t>
+  </si>
+  <si>
+    <t>Gml-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,7 +899,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -883,7 +910,7 @@
       <sheetData sheetId="1">
         <row r="6">
           <cell r="K6">
-            <v>506029</v>
+            <v>490028.3</v>
           </cell>
         </row>
       </sheetData>
@@ -935,7 +962,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,27 +994,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,24 +1028,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1212,15 +1203,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1239,7 +1230,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="82" t="s">
         <v>19</v>
       </c>
@@ -1254,7 +1245,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1299,7 @@
         <v>666070.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1332,7 @@
         <v>506029</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1374,7 +1365,7 @@
         <v>506028.99999999965</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="56" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1391,7 @@
         <v>644394.69999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="56" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1461,7 +1452,7 @@
       <c r="N8" s="83"/>
       <c r="O8" s="84"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1488,7 +1479,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -1521,7 +1512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1543,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1574,7 @@
         <v>7239.0399999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1602,7 @@
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1644,7 +1635,7 @@
         <v>28956.159999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +1662,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1698,7 +1689,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1731,7 +1722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="37"/>
@@ -1751,7 +1742,7 @@
         <v>15212.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -1772,7 +1763,7 @@
         <v>3042.56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -1790,7 +1781,7 @@
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -1813,7 +1804,7 @@
         <v>12170.24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -1830,7 +1821,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -1846,7 +1837,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -1868,7 +1859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -1886,7 +1877,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="67"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -1904,7 +1895,7 @@
       <c r="M26" s="69"/>
       <c r="N26" s="67"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -1922,7 +1913,7 @@
       <c r="M27" s="69"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -1944,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -1960,7 +1951,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -1976,7 +1967,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -1999,7 +1990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -2019,7 +2010,7 @@
         <v>35652.300000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -2040,7 +2031,7 @@
         <v>7130.4600000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -2058,7 +2049,7 @@
       <c r="M34" s="69"/>
       <c r="N34" s="67"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -2081,7 +2072,7 @@
         <v>21391.380000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -2097,7 +2088,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -2113,7 +2104,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -2129,7 +2120,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -2145,7 +2136,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -2161,7 +2152,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -2177,7 +2168,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -2193,7 +2184,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -2209,7 +2200,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -2225,7 +2216,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -2241,7 +2232,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -2257,7 +2248,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -2273,7 +2264,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>17</v>
       </c>
@@ -2306,15 +2297,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7A3B1-8D22-4A23-9114-F6E84368EED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
@@ -2336,7 +2327,7 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="82" t="s">
         <v>19</v>
       </c>
@@ -2351,7 +2342,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -2359,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>8</v>
@@ -2386,9 +2377,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="26" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -2405,84 +2396,124 @@
         <v>568546.78</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="11">
+        <v>3042.56</v>
+      </c>
       <c r="K4" s="29">
         <f>SUM(K3+G4-J4)</f>
-        <v>568546.78</v>
+        <v>565504.22</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="85">
         <f>'[1]May 2021'!$K$6</f>
-        <v>506029</v>
+        <v>490028.3</v>
       </c>
       <c r="O4" s="85"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="11">
+        <v>7239.04</v>
+      </c>
       <c r="K5" s="29">
         <f t="shared" ref="K5:K47" si="0">SUM(K4+G5-J5)</f>
-        <v>568546.78</v>
+        <v>558265.17999999993</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="85">
         <f>K47-N14-N21-N28-N35</f>
-        <v>506029</v>
+        <v>490028.29999999993</v>
       </c>
       <c r="O5" s="85"/>
     </row>
-    <row r="6" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+    <row r="6" spans="1:15" s="66" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="11">
+        <v>7130.46</v>
+      </c>
       <c r="K6" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+        <v>551134.71999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11">
+        <v>7130.46</v>
+      </c>
       <c r="K7" s="29">
         <f>SUM(K6+G7-J7)</f>
-        <v>568546.78</v>
+        <v>544004.26</v>
       </c>
       <c r="M7" s="83" t="s">
         <v>11</v>
@@ -2493,56 +2524,86 @@
       </c>
       <c r="O7" s="84"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+    <row r="8" spans="1:15" ht="15" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11">
+        <v>7239.04</v>
+      </c>
       <c r="K8" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>536765.22</v>
       </c>
       <c r="M8" s="83"/>
       <c r="N8" s="84"/>
       <c r="O8" s="84"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="11">
+        <v>7239.04</v>
+      </c>
       <c r="K9" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>529526.17999999993</v>
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="11"/>
+    <row r="10" spans="1:15" ht="15" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11">
+        <v>7239.08</v>
+      </c>
       <c r="K10" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>522287.09999999992</v>
       </c>
       <c r="M10" s="71" t="s">
         <v>47</v>
@@ -2554,20 +2615,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="34"/>
       <c r="F11" s="10"/>
       <c r="G11" s="51"/>
       <c r="H11" s="36"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <v>3200.1</v>
+      </c>
       <c r="K11" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M11" s="73" t="s">
         <v>49</v>
@@ -2578,7 +2649,7 @@
       </c>
       <c r="O11" s="86"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="59"/>
@@ -2591,17 +2662,17 @@
       <c r="J12" s="11"/>
       <c r="K12" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M12" s="73" t="s">
         <v>50</v>
       </c>
       <c r="N12" s="75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="86"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="10"/>
       <c r="B13" s="13"/>
       <c r="C13" s="59"/>
@@ -2614,13 +2685,13 @@
       <c r="J13" s="11"/>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M13" s="76"/>
       <c r="N13" s="77"/>
       <c r="O13" s="86"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="59"/>
@@ -2633,18 +2704,18 @@
       <c r="J14" s="11"/>
       <c r="K14" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M14" s="78" t="s">
         <v>51</v>
       </c>
       <c r="N14" s="79">
         <f>N10-(N11*N12)</f>
-        <v>28956.16</v>
+        <v>0</v>
       </c>
       <c r="O14" s="86"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="59"/>
@@ -2657,11 +2728,11 @@
       <c r="J15" s="11"/>
       <c r="K15" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="59"/>
@@ -2674,11 +2745,11 @@
       <c r="J16" s="11"/>
       <c r="K16" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="10"/>
       <c r="B17" s="12"/>
       <c r="C17" s="59"/>
@@ -2691,7 +2762,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M17" s="71" t="s">
         <v>47</v>
@@ -2703,7 +2774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="37"/>
@@ -2716,7 +2787,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M18" s="73" t="s">
         <v>49</v>
@@ -2727,7 +2798,7 @@
       </c>
       <c r="O18" s="86"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -2740,17 +2811,17 @@
       <c r="J19" s="11"/>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M19" s="73" t="s">
         <v>50</v>
       </c>
       <c r="N19" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="86"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -2763,13 +2834,13 @@
       <c r="J20" s="11"/>
       <c r="K20" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M20" s="76"/>
       <c r="N20" s="77"/>
       <c r="O20" s="86"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -2782,18 +2853,18 @@
       <c r="J21" s="11"/>
       <c r="K21" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M21" s="78" t="s">
         <v>51</v>
       </c>
       <c r="N21" s="79">
         <f>N17-(N18*N19)</f>
-        <v>12170.24</v>
+        <v>9127.68</v>
       </c>
       <c r="O21" s="86"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -2806,11 +2877,11 @@
       <c r="J22" s="11"/>
       <c r="K22" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -2823,10 +2894,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -2839,19 +2910,19 @@
       <c r="J24" s="11"/>
       <c r="K24" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M24" s="71" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="72">
-        <v>0</v>
+        <v>16000.7</v>
       </c>
       <c r="O24" s="86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -2864,18 +2935,18 @@
       <c r="J25" s="11"/>
       <c r="K25" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M25" s="73" t="s">
         <v>49</v>
       </c>
       <c r="N25" s="74">
         <f>N24/5</f>
-        <v>0</v>
+        <v>3200.1400000000003</v>
       </c>
       <c r="O25" s="86"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -2888,17 +2959,17 @@
       <c r="J26" s="11"/>
       <c r="K26" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M26" s="73" t="s">
         <v>50</v>
       </c>
       <c r="N26" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="86"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -2911,13 +2982,13 @@
       <c r="J27" s="11"/>
       <c r="K27" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M27" s="76"/>
       <c r="N27" s="77"/>
       <c r="O27" s="86"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -2930,18 +3001,18 @@
       <c r="J28" s="11"/>
       <c r="K28" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M28" s="78" t="s">
         <v>51</v>
       </c>
       <c r="N28" s="79">
         <f>N24-(N25*N26)</f>
-        <v>0</v>
+        <v>12800.560000000001</v>
       </c>
       <c r="O28" s="86"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -2954,10 +3025,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -2970,10 +3041,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -2986,7 +3057,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M31" s="71" t="s">
         <v>47</v>
@@ -2998,7 +3069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -3011,7 +3082,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M32" s="73" t="s">
         <v>49</v>
@@ -3022,7 +3093,7 @@
       </c>
       <c r="O32" s="86"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -3035,17 +3106,17 @@
       <c r="J33" s="11"/>
       <c r="K33" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M33" s="73" t="s">
         <v>50</v>
       </c>
       <c r="N33" s="75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" s="86"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -3058,13 +3129,13 @@
       <c r="J34" s="11"/>
       <c r="K34" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M34" s="76"/>
       <c r="N34" s="77"/>
       <c r="O34" s="86"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -3077,18 +3148,18 @@
       <c r="J35" s="11"/>
       <c r="K35" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M35" s="78" t="s">
         <v>51</v>
       </c>
       <c r="N35" s="79">
         <f>N31-(N32*N33)</f>
-        <v>21391.38</v>
+        <v>7130.4600000000009</v>
       </c>
       <c r="O35" s="86"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -3101,10 +3172,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -3117,11 +3188,11 @@
       <c r="J37" s="11"/>
       <c r="K37" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M37" s="80"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -3134,11 +3205,11 @@
       <c r="J38" s="11"/>
       <c r="K38" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M38" s="81"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -3151,11 +3222,11 @@
       <c r="J39" s="11"/>
       <c r="K39" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M39" s="80"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -3168,11 +3239,11 @@
       <c r="J40" s="11"/>
       <c r="K40" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M40" s="80"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -3185,11 +3256,11 @@
       <c r="J41" s="11"/>
       <c r="K41" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M41" s="81"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -3202,11 +3273,11 @@
       <c r="J42" s="11"/>
       <c r="K42" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M42" s="80"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="17.25" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -3219,11 +3290,11 @@
       <c r="J43" s="11"/>
       <c r="K43" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M43" s="81"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -3236,11 +3307,11 @@
       <c r="J44" s="30"/>
       <c r="K44" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
+        <v>519086.99999999994</v>
       </c>
       <c r="M44" s="80"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -3253,10 +3324,10 @@
       <c r="J45" s="30"/>
       <c r="K45" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -3269,10 +3340,10 @@
       <c r="J46" s="30"/>
       <c r="K46" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -3285,10 +3356,10 @@
       <c r="J47" s="44"/>
       <c r="K47" s="29">
         <f t="shared" si="0"/>
-        <v>568546.78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>519086.99999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>17</v>
       </c>
@@ -3305,13 +3376,12 @@
       <c r="I48" s="49"/>
       <c r="J48" s="17">
         <f>SUM(J3:J47)</f>
-        <v>0</v>
+        <v>49459.78</v>
       </c>
       <c r="K48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="O17:O21"/>
     <mergeCell ref="O24:O28"/>
     <mergeCell ref="O31:O35"/>
     <mergeCell ref="M7:M8"/>
@@ -3320,6 +3390,7 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O17:O21"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.3" header="0.23" footer="0.21"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -303,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -604,7 +610,29 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -613,8 +641,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -625,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -837,26 +911,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,11 +930,78 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,19 +1353,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -1416,10 +1538,10 @@
         <f>SUM(K6+G7-J7)</f>
         <v>637169.29999999993</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="84">
+      <c r="O7" s="77">
         <f>O4-O5</f>
         <v>0</v>
       </c>
@@ -1449,8 +1571,8 @@
         <f t="shared" si="0"/>
         <v>629943.29999999993</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="77"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
@@ -2301,8 +2423,8 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7:O8"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2328,19 +2450,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -2377,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>55</v>
       </c>
@@ -2421,14 +2543,14 @@
         <f>SUM(K3+G4-J4)</f>
         <v>565504.22</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="89">
         <f>'[1]May 2021'!$K$6</f>
         <v>490028.3</v>
       </c>
-      <c r="O4" s="85"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
@@ -2455,16 +2577,16 @@
         <f t="shared" ref="K5:K47" si="0">SUM(K4+G5-J5)</f>
         <v>558265.17999999993</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="92">
         <f>K47-N14-N21-N28-N35</f>
         <v>490028.29999999993</v>
       </c>
-      <c r="O5" s="85"/>
-    </row>
-    <row r="6" spans="1:15" s="66" customFormat="1">
+      <c r="O5" s="93"/>
+    </row>
+    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>54</v>
       </c>
@@ -2489,6 +2611,9 @@
         <f t="shared" si="0"/>
         <v>551134.71999999997</v>
       </c>
+      <c r="M6" s="94"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -2515,16 +2640,16 @@
         <f>SUM(K6+G7-J7)</f>
         <v>544004.26</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="84">
+      <c r="N7" s="98">
         <f>N4-N5</f>
         <v>0</v>
       </c>
-      <c r="O7" s="84"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+      <c r="O7" s="99"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
@@ -2549,11 +2674,11 @@
         <f t="shared" si="0"/>
         <v>536765.22</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="102"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
@@ -2605,13 +2730,13 @@
         <f t="shared" si="0"/>
         <v>522287.09999999992</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="79">
         <v>28956.16</v>
       </c>
-      <c r="O10" s="86" t="s">
+      <c r="O10" s="80" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2640,14 +2765,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="82">
         <f>N10/4</f>
         <v>7239.04</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="10"/>
@@ -2664,13 +2789,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="84">
         <v>4</v>
       </c>
-      <c r="O12" s="86"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="10"/>
@@ -2687,9 +2812,9 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="86"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="83"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="10"/>
@@ -2706,14 +2831,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M14" s="78" t="s">
+      <c r="M14" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="79">
+      <c r="N14" s="72">
         <f>N10-(N11*N12)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="86"/>
+      <c r="O14" s="87"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="10"/>
@@ -2732,7 +2857,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="59"/>
@@ -2764,13 +2889,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="79">
         <v>12170.24</v>
       </c>
-      <c r="O17" s="86" t="s">
+      <c r="O17" s="80" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2789,14 +2914,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M18" s="73" t="s">
+      <c r="M18" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="82">
         <f>N17/4</f>
         <v>3042.56</v>
       </c>
-      <c r="O18" s="86"/>
+      <c r="O18" s="83"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="10"/>
@@ -2813,13 +2938,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M19" s="73" t="s">
+      <c r="M19" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="75">
+      <c r="N19" s="84">
         <v>1</v>
       </c>
-      <c r="O19" s="86"/>
+      <c r="O19" s="83"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="10"/>
@@ -2836,9 +2961,9 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="86"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="83"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
@@ -2855,14 +2980,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M21" s="78" t="s">
+      <c r="M21" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="79">
+      <c r="N21" s="72">
         <f>N17-(N18*N19)</f>
         <v>9127.68</v>
       </c>
-      <c r="O21" s="86"/>
+      <c r="O21" s="87"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="10"/>
@@ -2881,7 +3006,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -2912,13 +3037,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="72">
+      <c r="N24" s="79">
         <v>16000.7</v>
       </c>
-      <c r="O24" s="86" t="s">
+      <c r="O24" s="80" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2937,14 +3062,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M25" s="73" t="s">
+      <c r="M25" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="74">
+      <c r="N25" s="82">
         <f>N24/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="O25" s="86"/>
+      <c r="O25" s="83"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="10"/>
@@ -2961,13 +3086,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="75">
+      <c r="N26" s="84">
         <v>1</v>
       </c>
-      <c r="O26" s="86"/>
+      <c r="O26" s="83"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
@@ -2984,9 +3109,9 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="86"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="83"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
@@ -3003,14 +3128,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M28" s="78" t="s">
+      <c r="M28" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="79">
+      <c r="N28" s="72">
         <f>N24-(N25*N26)</f>
         <v>12800.560000000001</v>
       </c>
-      <c r="O28" s="86"/>
+      <c r="O28" s="87"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="10"/>
@@ -3028,7 +3153,7 @@
         <v>519086.99999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -3059,13 +3184,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="72">
+      <c r="N31" s="79">
         <v>21391.38</v>
       </c>
-      <c r="O31" s="86" t="s">
+      <c r="O31" s="80" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3084,14 +3209,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M32" s="73" t="s">
+      <c r="M32" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="74">
+      <c r="N32" s="82">
         <f>N31/3</f>
         <v>7130.46</v>
       </c>
-      <c r="O32" s="86"/>
+      <c r="O32" s="83"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="10"/>
@@ -3108,13 +3233,13 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M33" s="73" t="s">
+      <c r="M33" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="N33" s="75">
+      <c r="N33" s="84">
         <v>2</v>
       </c>
-      <c r="O33" s="86"/>
+      <c r="O33" s="83"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1">
       <c r="A34" s="10"/>
@@ -3131,9 +3256,9 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M34" s="76"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="86"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="83"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="10"/>
@@ -3150,14 +3275,14 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M35" s="78" t="s">
+      <c r="M35" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="79">
+      <c r="N35" s="72">
         <f>N31-(N32*N33)</f>
         <v>7130.4600000000009</v>
       </c>
-      <c r="O35" s="86"/>
+      <c r="O35" s="87"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="10"/>
@@ -3190,7 +3315,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M37" s="80"/>
+      <c r="M37" s="73"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="10"/>
@@ -3207,7 +3332,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M38" s="81"/>
+      <c r="M38" s="74"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="10"/>
@@ -3224,7 +3349,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M39" s="80"/>
+      <c r="M39" s="73"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
@@ -3241,7 +3366,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M40" s="80"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
@@ -3258,7 +3383,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M41" s="81"/>
+      <c r="M41" s="74"/>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="10"/>
@@ -3275,7 +3400,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M42" s="80"/>
+      <c r="M42" s="73"/>
     </row>
     <row r="43" spans="1:15" ht="17.25" customHeight="1">
       <c r="A43" s="10"/>
@@ -3292,7 +3417,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M43" s="81"/>
+      <c r="M43" s="74"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="10"/>
@@ -3309,7 +3434,7 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M44" s="80"/>
+      <c r="M44" s="73"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="10"/>
@@ -3382,15 +3507,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O17:O21"/>
     <mergeCell ref="O24:O28"/>
     <mergeCell ref="O31:O35"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:O8"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O17:O21"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.3" header="0.23" footer="0.21"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Total Quantity</t>
   </si>
   <si>
-    <t>Gsl-03</t>
-  </si>
-  <si>
     <t>Quantity per part</t>
   </si>
   <si>
@@ -217,6 +214,15 @@
   </si>
   <si>
     <t>Gml-01</t>
+  </si>
+  <si>
+    <t>17.05.2021</t>
+  </si>
+  <si>
+    <t>Gsl-4</t>
+  </si>
+  <si>
+    <t>Gsl-04</t>
   </si>
 </sst>
 </file>
@@ -921,6 +927,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,78 +970,44 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,11 +1034,11 @@
       <sheetName val="May 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="K6">
-            <v>490028.3</v>
+            <v>454804.3</v>
           </cell>
         </row>
       </sheetData>
@@ -1353,19 +1359,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -1538,10 +1544,10 @@
         <f>SUM(K6+G7-J7)</f>
         <v>637169.29999999993</v>
       </c>
-      <c r="N7" s="76" t="s">
+      <c r="N7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="89">
         <f>O4-O5</f>
         <v>0</v>
       </c>
@@ -1571,8 +1577,8 @@
         <f t="shared" si="0"/>
         <v>629943.29999999993</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="89"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
@@ -2424,7 +2430,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2440,29 +2446,29 @@
     <col min="9" max="9" width="13.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="5" customWidth="1"/>
     <col min="16" max="16" width="6" style="5" customWidth="1"/>
     <col min="17" max="17" width="8" style="5" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
@@ -2472,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>8</v>
@@ -2501,7 +2507,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>22</v>
@@ -2543,18 +2549,18 @@
         <f>SUM(K3+G4-J4)</f>
         <v>565504.22</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="89">
+      <c r="N4" s="99">
         <f>'[1]May 2021'!$K$6</f>
-        <v>490028.3</v>
-      </c>
-      <c r="O4" s="90"/>
+        <v>454804.3</v>
+      </c>
+      <c r="O4" s="100"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>22</v>
@@ -2577,18 +2583,18 @@
         <f t="shared" ref="K5:K47" si="0">SUM(K4+G5-J5)</f>
         <v>558265.17999999993</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="M5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="92">
+      <c r="N5" s="101">
         <f>K47-N14-N21-N28-N35</f>
-        <v>490028.29999999993</v>
-      </c>
-      <c r="O5" s="93"/>
+        <v>454804.33999999997</v>
+      </c>
+      <c r="O5" s="102"/>
     </row>
     <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2597,7 +2603,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="10"/>
@@ -2611,13 +2617,13 @@
         <f t="shared" si="0"/>
         <v>551134.71999999997</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="96"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
     </row>
     <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>22</v>
@@ -2626,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="10"/>
@@ -2640,18 +2646,18 @@
         <f>SUM(K6+G7-J7)</f>
         <v>544004.26</v>
       </c>
-      <c r="M7" s="97" t="s">
+      <c r="M7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="95">
         <f>N4-N5</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="99"/>
+        <v>-3.9999999979045242E-2</v>
+      </c>
+      <c r="O7" s="96"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>22</v>
@@ -2674,13 +2680,13 @@
         <f t="shared" si="0"/>
         <v>536765.22</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>22</v>
@@ -2707,7 +2713,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>22</v>
@@ -2730,25 +2736,25 @@
         <f t="shared" si="0"/>
         <v>522287.09999999992</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="79">
-        <v>28956.16</v>
-      </c>
-      <c r="O10" s="80" t="s">
-        <v>48</v>
+      <c r="N10" s="76">
+        <v>35224</v>
+      </c>
+      <c r="O10" s="90" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>24</v>
@@ -2765,56 +2771,76 @@
         <f t="shared" si="0"/>
         <v>519086.99999999994</v>
       </c>
-      <c r="M11" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="82">
+      <c r="M11" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="78">
         <f>N10/4</f>
-        <v>7239.04</v>
-      </c>
-      <c r="O11" s="83"/>
+        <v>8806</v>
+      </c>
+      <c r="O11" s="91"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="34"/>
       <c r="F12" s="10"/>
       <c r="G12" s="51"/>
       <c r="H12" s="36"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <v>8806</v>
+      </c>
       <c r="K12" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M12" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="84">
-        <v>4</v>
-      </c>
-      <c r="O12" s="83"/>
+        <v>510280.99999999994</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="79">
+        <v>1</v>
+      </c>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="34"/>
       <c r="F13" s="10"/>
       <c r="G13" s="51"/>
       <c r="H13" s="36"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <v>3200.1</v>
+      </c>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M13" s="85"/>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M13" s="80"/>
       <c r="N13" s="71"/>
-      <c r="O13" s="83"/>
+      <c r="O13" s="91"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="10"/>
@@ -2829,16 +2855,16 @@
       <c r="J14" s="11"/>
       <c r="K14" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M14" s="86" t="s">
-        <v>51</v>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>50</v>
       </c>
       <c r="N14" s="72">
         <f>N10-(N11*N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="87"/>
+        <v>26418</v>
+      </c>
+      <c r="O14" s="92"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="10"/>
@@ -2853,7 +2879,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="N15" s="7"/>
     </row>
@@ -2870,7 +2896,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="N16" s="7"/>
     </row>
@@ -2887,16 +2913,16 @@
       <c r="J17" s="11"/>
       <c r="K17" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M17" s="78" t="s">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M17" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="79">
+      <c r="N17" s="76">
         <v>12170.24</v>
       </c>
-      <c r="O17" s="80" t="s">
-        <v>52</v>
+      <c r="O17" s="90" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2912,16 +2938,16 @@
       <c r="J18" s="11"/>
       <c r="K18" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M18" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="82">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M18" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="78">
         <f>N17/4</f>
         <v>3042.56</v>
       </c>
-      <c r="O18" s="83"/>
+      <c r="O18" s="91"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="10"/>
@@ -2936,15 +2962,15 @@
       <c r="J19" s="11"/>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M19" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="84">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="79">
         <v>1</v>
       </c>
-      <c r="O19" s="83"/>
+      <c r="O19" s="91"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="10"/>
@@ -2959,11 +2985,11 @@
       <c r="J20" s="11"/>
       <c r="K20" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M20" s="85"/>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M20" s="80"/>
       <c r="N20" s="71"/>
-      <c r="O20" s="83"/>
+      <c r="O20" s="91"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
@@ -2978,16 +3004,16 @@
       <c r="J21" s="11"/>
       <c r="K21" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M21" s="86" t="s">
-        <v>51</v>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>50</v>
       </c>
       <c r="N21" s="72">
         <f>N17-(N18*N19)</f>
         <v>9127.68</v>
       </c>
-      <c r="O21" s="87"/>
+      <c r="O21" s="92"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="10"/>
@@ -3002,7 +3028,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="N22" s="7"/>
     </row>
@@ -3019,7 +3045,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
@@ -3035,16 +3061,16 @@
       <c r="J24" s="11"/>
       <c r="K24" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M24" s="78" t="s">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M24" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="79">
+      <c r="N24" s="76">
         <v>16000.7</v>
       </c>
-      <c r="O24" s="80" t="s">
-        <v>64</v>
+      <c r="O24" s="90" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
@@ -3060,16 +3086,16 @@
       <c r="J25" s="11"/>
       <c r="K25" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M25" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" s="82">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="78">
         <f>N24/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="O25" s="83"/>
+      <c r="O25" s="91"/>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="10"/>
@@ -3084,15 +3110,15 @@
       <c r="J26" s="11"/>
       <c r="K26" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M26" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="84">
-        <v>1</v>
-      </c>
-      <c r="O26" s="83"/>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M26" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="79">
+        <v>2</v>
+      </c>
+      <c r="O26" s="91"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
@@ -3107,11 +3133,11 @@
       <c r="J27" s="11"/>
       <c r="K27" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M27" s="85"/>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M27" s="80"/>
       <c r="N27" s="71"/>
-      <c r="O27" s="83"/>
+      <c r="O27" s="91"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
@@ -3126,16 +3152,16 @@
       <c r="J28" s="11"/>
       <c r="K28" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M28" s="86" t="s">
-        <v>51</v>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M28" s="81" t="s">
+        <v>50</v>
       </c>
       <c r="N28" s="72">
         <f>N24-(N25*N26)</f>
-        <v>12800.560000000001</v>
-      </c>
-      <c r="O28" s="87"/>
+        <v>9600.42</v>
+      </c>
+      <c r="O28" s="92"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="10"/>
@@ -3150,7 +3176,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -3166,7 +3192,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3182,15 +3208,15 @@
       <c r="J31" s="11"/>
       <c r="K31" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M31" s="78" t="s">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M31" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="79">
+      <c r="N31" s="76">
         <v>21391.38</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="90" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3207,16 +3233,16 @@
       <c r="J32" s="11"/>
       <c r="K32" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M32" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="N32" s="82">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="78">
         <f>N31/3</f>
         <v>7130.46</v>
       </c>
-      <c r="O32" s="83"/>
+      <c r="O32" s="91"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="10"/>
@@ -3231,15 +3257,15 @@
       <c r="J33" s="11"/>
       <c r="K33" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M33" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" s="84">
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M33" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="79">
         <v>2</v>
       </c>
-      <c r="O33" s="83"/>
+      <c r="O33" s="91"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1">
       <c r="A34" s="10"/>
@@ -3254,11 +3280,11 @@
       <c r="J34" s="11"/>
       <c r="K34" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M34" s="85"/>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M34" s="80"/>
       <c r="N34" s="71"/>
-      <c r="O34" s="83"/>
+      <c r="O34" s="91"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="10"/>
@@ -3273,16 +3299,16 @@
       <c r="J35" s="11"/>
       <c r="K35" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
-      </c>
-      <c r="M35" s="86" t="s">
-        <v>51</v>
+        <v>507080.89999999997</v>
+      </c>
+      <c r="M35" s="81" t="s">
+        <v>50</v>
       </c>
       <c r="N35" s="72">
         <f>N31-(N32*N33)</f>
         <v>7130.4600000000009</v>
       </c>
-      <c r="O35" s="87"/>
+      <c r="O35" s="92"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="10"/>
@@ -3297,7 +3323,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -3313,7 +3339,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M37" s="73"/>
     </row>
@@ -3330,7 +3356,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M38" s="74"/>
     </row>
@@ -3347,7 +3373,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M39" s="73"/>
     </row>
@@ -3364,7 +3390,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M40" s="73"/>
     </row>
@@ -3381,7 +3407,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M41" s="74"/>
     </row>
@@ -3398,7 +3424,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M42" s="73"/>
     </row>
@@ -3415,7 +3441,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M43" s="74"/>
     </row>
@@ -3432,7 +3458,7 @@
       <c r="J44" s="30"/>
       <c r="K44" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
       <c r="M44" s="73"/>
     </row>
@@ -3449,7 +3475,7 @@
       <c r="J45" s="30"/>
       <c r="K45" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3465,7 +3491,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1">
@@ -3481,7 +3507,7 @@
       <c r="J47" s="44"/>
       <c r="K47" s="29">
         <f t="shared" si="0"/>
-        <v>519086.99999999994</v>
+        <v>507080.89999999997</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1">
@@ -3501,7 +3527,7 @@
       <c r="I48" s="49"/>
       <c r="J48" s="17">
         <f>SUM(J3:J47)</f>
-        <v>49459.78</v>
+        <v>61465.88</v>
       </c>
       <c r="K48" s="19"/>
     </row>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1BDF7-B09E-45CA-BD96-0B04713C4E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$O$43</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -223,16 +229,25 @@
   </si>
   <si>
     <t>Gsl-04</t>
+  </si>
+  <si>
+    <t>18.05.2021</t>
+  </si>
+  <si>
+    <t>Part no. 05</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,7 +1042,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1090,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1122,9 +1137,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1156,6 +1189,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1331,15 +1382,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1358,7 +1409,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1424,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
+    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1478,7 @@
         <v>666070.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1511,7 @@
         <v>506029</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1544,7 @@
         <v>506028.99999999965</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="56" customFormat="1">
+    <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1570,7 @@
         <v>644394.69999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="56" customFormat="1">
+    <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1631,7 @@
       <c r="N8" s="88"/>
       <c r="O8" s="89"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1658,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -1640,7 +1691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1722,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1702,7 +1753,7 @@
         <v>7239.0399999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -1730,7 +1781,7 @@
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1763,7 +1814,7 @@
         <v>28956.159999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +1841,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1817,7 +1868,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1850,7 +1901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="37"/>
@@ -1870,7 +1921,7 @@
         <v>15212.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -1891,7 +1942,7 @@
         <v>3042.56</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -1909,7 +1960,7 @@
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -1932,7 +1983,7 @@
         <v>12170.24</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -1949,7 +2000,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -1965,7 +2016,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -1987,7 +2038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -2005,7 +2056,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="67"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -2023,7 +2074,7 @@
       <c r="M26" s="69"/>
       <c r="N26" s="67"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -2041,7 +2092,7 @@
       <c r="M27" s="69"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -2063,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -2079,7 +2130,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -2095,7 +2146,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -2118,7 +2169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -2138,7 +2189,7 @@
         <v>35652.300000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -2159,7 +2210,7 @@
         <v>7130.4600000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -2177,7 +2228,7 @@
       <c r="M34" s="69"/>
       <c r="N34" s="67"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -2200,7 +2251,7 @@
         <v>21391.380000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -2216,7 +2267,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -2232,7 +2283,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -2248,7 +2299,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -2264,7 +2315,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -2280,7 +2331,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -2296,7 +2347,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -2312,7 +2363,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -2328,7 +2379,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -2344,7 +2395,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -2360,7 +2411,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -2376,7 +2427,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -2392,7 +2443,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
         <v>17</v>
       </c>
@@ -2425,15 +2476,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
@@ -2455,7 +2506,7 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
@@ -2470,7 +2521,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
+    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -2505,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>54</v>
       </c>
@@ -2524,7 +2575,7 @@
         <v>568546.78</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>54</v>
       </c>
@@ -2558,7 +2609,7 @@
       </c>
       <c r="O4" s="100"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -2588,11 +2639,11 @@
       </c>
       <c r="N5" s="101">
         <f>K47-N14-N21-N28-N35</f>
-        <v>454804.33999999997</v>
+        <v>454804.30000000005</v>
       </c>
       <c r="O5" s="102"/>
     </row>
-    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
@@ -2621,7 +2672,7 @@
       <c r="N6" s="85"/>
       <c r="O6" s="86"/>
     </row>
-    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
@@ -2651,11 +2702,11 @@
       </c>
       <c r="N7" s="95">
         <f>N4-N5</f>
-        <v>-3.9999999979045242E-2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="96"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -2684,7 +2735,7 @@
       <c r="N8" s="97"/>
       <c r="O8" s="98"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2762,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -2746,7 +2797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>61</v>
       </c>
@@ -2775,12 +2826,12 @@
         <v>48</v>
       </c>
       <c r="N11" s="78">
-        <f>N10/4</f>
-        <v>8806</v>
+        <f>N10/5</f>
+        <v>7044.8</v>
       </c>
       <c r="O11" s="91"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
@@ -2799,21 +2850,21 @@
       <c r="H12" s="36"/>
       <c r="I12" s="14"/>
       <c r="J12" s="11">
-        <v>8806</v>
+        <v>7044.8</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="0"/>
-        <v>510280.99999999994</v>
+        <v>512042.19999999995</v>
       </c>
       <c r="M12" s="77" t="s">
         <v>49</v>
       </c>
       <c r="N12" s="79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" s="91"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
@@ -2836,84 +2887,124 @@
       </c>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>508842.1</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="71"/>
       <c r="O13" s="91"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="E14" s="33"/>
       <c r="F14" s="10"/>
       <c r="G14" s="51"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <v>7130.5</v>
+      </c>
       <c r="K14" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>501711.6</v>
       </c>
       <c r="M14" s="81" t="s">
         <v>50</v>
       </c>
       <c r="N14" s="72">
         <f>N10-(N11*N12)</f>
-        <v>26418</v>
+        <v>7044.7999999999993</v>
       </c>
       <c r="O14" s="92"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="33"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="10"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="11">
+        <v>7044.8</v>
+      </c>
       <c r="K15" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>494666.8</v>
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" s="34"/>
       <c r="F16" s="10"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="11"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="11">
+        <v>7044.8</v>
+      </c>
       <c r="K16" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>487622</v>
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="11"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="11">
+        <v>7044.8</v>
+      </c>
       <c r="K17" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>480577.2</v>
       </c>
       <c r="M17" s="75" t="s">
         <v>47</v>
@@ -2925,20 +3016,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="34"/>
       <c r="F18" s="10"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <v>3042.56</v>
+      </c>
       <c r="K18" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M18" s="77" t="s">
         <v>48</v>
@@ -2949,7 +3050,7 @@
       </c>
       <c r="O18" s="91"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -2962,17 +3063,17 @@
       <c r="J19" s="11"/>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M19" s="77" t="s">
         <v>49</v>
       </c>
       <c r="N19" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -2985,13 +3086,13 @@
       <c r="J20" s="11"/>
       <c r="K20" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="71"/>
       <c r="O20" s="91"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -3004,18 +3105,18 @@
       <c r="J21" s="11"/>
       <c r="K21" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M21" s="81" t="s">
         <v>50</v>
       </c>
       <c r="N21" s="72">
         <f>N17-(N18*N19)</f>
-        <v>9127.68</v>
+        <v>6085.12</v>
       </c>
       <c r="O21" s="92"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -3028,11 +3129,11 @@
       <c r="J22" s="11"/>
       <c r="K22" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -3045,10 +3146,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -3061,7 +3162,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M24" s="75" t="s">
         <v>47</v>
@@ -3073,7 +3174,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -3086,7 +3187,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M25" s="77" t="s">
         <v>48</v>
@@ -3097,7 +3198,7 @@
       </c>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -3110,7 +3211,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M26" s="77" t="s">
         <v>49</v>
@@ -3120,7 +3221,7 @@
       </c>
       <c r="O26" s="91"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -3133,13 +3234,13 @@
       <c r="J27" s="11"/>
       <c r="K27" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M27" s="80"/>
       <c r="N27" s="71"/>
       <c r="O27" s="91"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -3152,7 +3253,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M28" s="81" t="s">
         <v>50</v>
@@ -3163,7 +3264,7 @@
       </c>
       <c r="O28" s="92"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -3176,10 +3277,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -3192,10 +3293,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -3208,7 +3309,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M31" s="75" t="s">
         <v>47</v>
@@ -3220,7 +3321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -3233,7 +3334,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M32" s="77" t="s">
         <v>48</v>
@@ -3244,7 +3345,7 @@
       </c>
       <c r="O32" s="91"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -3257,17 +3358,17 @@
       <c r="J33" s="11"/>
       <c r="K33" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M33" s="77" t="s">
         <v>49</v>
       </c>
       <c r="N33" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" s="91"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -3280,13 +3381,13 @@
       <c r="J34" s="11"/>
       <c r="K34" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M34" s="80"/>
       <c r="N34" s="71"/>
       <c r="O34" s="91"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -3299,18 +3400,18 @@
       <c r="J35" s="11"/>
       <c r="K35" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>50</v>
       </c>
       <c r="N35" s="72">
         <f>N31-(N32*N33)</f>
-        <v>7130.4600000000009</v>
+        <v>0</v>
       </c>
       <c r="O35" s="92"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -3323,10 +3424,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -3339,11 +3440,11 @@
       <c r="J37" s="11"/>
       <c r="K37" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M37" s="73"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -3356,11 +3457,11 @@
       <c r="J38" s="11"/>
       <c r="K38" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M38" s="74"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -3373,11 +3474,11 @@
       <c r="J39" s="11"/>
       <c r="K39" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M39" s="73"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -3390,11 +3491,11 @@
       <c r="J40" s="11"/>
       <c r="K40" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M40" s="73"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -3407,11 +3508,11 @@
       <c r="J41" s="11"/>
       <c r="K41" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M41" s="74"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -3424,11 +3525,11 @@
       <c r="J42" s="11"/>
       <c r="K42" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M42" s="73"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" customHeight="1">
+    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -3441,11 +3542,11 @@
       <c r="J43" s="11"/>
       <c r="K43" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M43" s="74"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -3458,11 +3559,11 @@
       <c r="J44" s="30"/>
       <c r="K44" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
+        <v>477534.64</v>
       </c>
       <c r="M44" s="73"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -3475,10 +3576,10 @@
       <c r="J45" s="30"/>
       <c r="K45" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -3491,10 +3592,10 @@
       <c r="J46" s="30"/>
       <c r="K46" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -3507,10 +3608,10 @@
       <c r="J47" s="44"/>
       <c r="K47" s="29">
         <f t="shared" si="0"/>
-        <v>507080.89999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
         <v>17</v>
       </c>
@@ -3527,7 +3628,7 @@
       <c r="I48" s="49"/>
       <c r="J48" s="17">
         <f>SUM(J3:J47)</f>
-        <v>61465.88</v>
+        <v>91012.14</v>
       </c>
       <c r="K48" s="19"/>
     </row>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1BDF7-B09E-45CA-BD96-0B04713C4E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$O$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -243,11 +237,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,7 +1036,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1105,7 +1099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,27 +1131,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1189,24 +1165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1382,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1390,7 +1348,7 @@
       <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1409,7 +1367,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
@@ -1424,7 +1382,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -1459,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1436,7 @@
         <v>666070.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1469,7 @@
         <v>506029</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1502,7 @@
         <v>506028.99999999965</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="56" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1528,7 @@
         <v>644394.69999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="56" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -1603,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1589,7 @@
       <c r="N8" s="88"/>
       <c r="O8" s="89"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1616,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -1691,7 +1649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1722,7 +1680,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1711,7 @@
         <v>7239.0399999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1739,7 @@
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1814,7 +1772,7 @@
         <v>28956.159999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1799,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1868,7 +1826,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1901,7 +1859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="37"/>
@@ -1921,7 +1879,7 @@
         <v>15212.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -1942,7 +1900,7 @@
         <v>3042.56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -1960,7 +1918,7 @@
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -1983,7 +1941,7 @@
         <v>12170.24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -2000,7 +1958,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -2016,7 +1974,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -2038,7 +1996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -2056,7 +2014,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="67"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -2074,7 +2032,7 @@
       <c r="M26" s="69"/>
       <c r="N26" s="67"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -2092,7 +2050,7 @@
       <c r="M27" s="69"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -2114,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -2130,7 +2088,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -2146,7 +2104,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -2169,7 +2127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -2189,7 +2147,7 @@
         <v>35652.300000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -2210,7 +2168,7 @@
         <v>7130.4600000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -2228,7 +2186,7 @@
       <c r="M34" s="69"/>
       <c r="N34" s="67"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -2251,7 +2209,7 @@
         <v>21391.380000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -2267,7 +2225,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -2283,7 +2241,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -2299,7 +2257,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -2315,7 +2273,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -2331,7 +2289,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -2347,7 +2305,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -2363,7 +2321,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -2379,7 +2337,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -2395,7 +2353,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -2411,7 +2369,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -2427,7 +2385,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -2443,7 +2401,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>17</v>
       </c>
@@ -2476,15 +2434,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
@@ -2506,7 +2464,7 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
@@ -2521,7 +2479,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>54</v>
       </c>
@@ -2575,7 +2533,7 @@
         <v>568546.78</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>54</v>
       </c>
@@ -2609,7 +2567,7 @@
       </c>
       <c r="O4" s="100"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -2643,7 +2601,7 @@
       </c>
       <c r="O5" s="102"/>
     </row>
-    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
@@ -2672,7 +2630,7 @@
       <c r="N6" s="85"/>
       <c r="O6" s="86"/>
     </row>
-    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
@@ -2706,7 +2664,7 @@
       </c>
       <c r="O7" s="96"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
@@ -2735,7 +2693,7 @@
       <c r="N8" s="97"/>
       <c r="O8" s="98"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -2762,7 +2720,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -2797,7 +2755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>61</v>
       </c>
@@ -2831,7 +2789,7 @@
       </c>
       <c r="O11" s="91"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
@@ -2864,7 +2822,7 @@
       </c>
       <c r="O12" s="91"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
@@ -2893,7 +2851,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="91"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
@@ -2927,7 +2885,7 @@
       </c>
       <c r="O14" s="92"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -2954,7 +2912,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
@@ -2981,7 +2939,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
@@ -3016,7 +2974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="10" t="s">
         <v>69</v>
       </c>
@@ -3050,7 +3008,7 @@
       </c>
       <c r="O18" s="91"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -3073,7 +3031,7 @@
       </c>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -3092,7 +3050,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="91"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -3116,7 +3074,7 @@
       </c>
       <c r="O21" s="92"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -3133,7 +3091,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -3149,7 +3107,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -3174,7 +3132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -3198,7 +3156,7 @@
       </c>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -3221,7 +3179,7 @@
       </c>
       <c r="O26" s="91"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -3240,7 +3198,7 @@
       <c r="N27" s="71"/>
       <c r="O27" s="91"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -3264,7 +3222,7 @@
       </c>
       <c r="O28" s="92"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -3280,7 +3238,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -3296,7 +3254,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -3321,7 +3279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -3345,7 +3303,7 @@
       </c>
       <c r="O32" s="91"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -3368,7 +3326,7 @@
       </c>
       <c r="O33" s="91"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -3387,7 +3345,7 @@
       <c r="N34" s="71"/>
       <c r="O34" s="91"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -3411,7 +3369,7 @@
       </c>
       <c r="O35" s="92"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -3427,7 +3385,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -3444,7 +3402,7 @@
       </c>
       <c r="M37" s="73"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -3461,7 +3419,7 @@
       </c>
       <c r="M38" s="74"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -3478,7 +3436,7 @@
       </c>
       <c r="M39" s="73"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -3495,7 +3453,7 @@
       </c>
       <c r="M40" s="73"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -3512,7 +3470,7 @@
       </c>
       <c r="M41" s="74"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -3529,7 +3487,7 @@
       </c>
       <c r="M42" s="73"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="17.25" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -3546,7 +3504,7 @@
       </c>
       <c r="M43" s="74"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -3563,7 +3521,7 @@
       </c>
       <c r="M44" s="73"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -3579,7 +3537,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -3595,7 +3553,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -3611,7 +3569,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>17</v>
       </c>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -1,28 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A069912-7FC5-4C54-ABC3-055650F901FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
     <sheet name="May 2021" sheetId="26" r:id="rId2"/>
+    <sheet name="June 2021" sheetId="27" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$2:$O$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$O$43</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="75">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -75,15 +91,9 @@
     <t>GML-07</t>
   </si>
   <si>
-    <t>TOTAL FOR THE MONTH OF MARCH 2020-21</t>
-  </si>
-  <si>
     <t>5 Kg-14</t>
   </si>
   <si>
-    <t>ORIGINAL TEA STOCK REGISTER FOR THE MONTH OF APRIL 2021-22</t>
-  </si>
-  <si>
     <t>01.04.2021</t>
   </si>
   <si>
@@ -232,16 +242,37 @@
   </si>
   <si>
     <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>01.06.2021</t>
+  </si>
+  <si>
+    <t>ORIGINAL TEA STOCK REGISTER FOR THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>ORIGINAL TEA STOCK REGISTER FOR THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF MAY2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF APRIL 2021</t>
+  </si>
+  <si>
+    <t>ORIGINAL TEA STOCK REGISTER FOR THE MONTH OF APRIL 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -968,6 +999,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1036,15 +1070,23 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="6">
+          <cell r="K6">
+            <v>454804.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
         <row r="6">
           <cell r="K6">
             <v>454804.3</v>
@@ -1099,7 +1141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,9 +1173,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,6 +1225,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1340,15 +1418,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1367,22 +1445,22 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -1417,9 +1495,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -1436,18 +1514,18 @@
         <v>666070.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="61"/>
       <c r="F4" s="60"/>
@@ -1469,18 +1547,18 @@
         <v>506029</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="60"/>
@@ -1502,18 +1580,18 @@
         <v>506028.99999999965</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="56" customFormat="1">
+    <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="60"/>
@@ -1528,18 +1606,18 @@
         <v>644394.69999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="56" customFormat="1">
+    <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="60"/>
@@ -1553,26 +1631,26 @@
         <f>SUM(K6+G7-J7)</f>
         <v>637169.29999999993</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="90">
         <f>O4-O5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="60"/>
@@ -1586,21 +1664,21 @@
         <f t="shared" si="0"/>
         <v>629943.29999999993</v>
       </c>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="60"/>
@@ -1616,18 +1694,18 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="10"/>
@@ -1646,21 +1724,21 @@
         <v>7239.04</v>
       </c>
       <c r="N10" s="68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="10"/>
@@ -1680,18 +1758,18 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="10"/>
@@ -1711,18 +1789,18 @@
         <v>7239.0399999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="10"/>
@@ -1739,18 +1817,18 @@
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="10"/>
@@ -1772,18 +1850,18 @@
         <v>28956.159999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" s="60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="10"/>
@@ -1799,18 +1877,18 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="10"/>
@@ -1826,18 +1904,18 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1856,10 +1934,10 @@
         <v>3042.56</v>
       </c>
       <c r="N17" s="68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="37"/>
@@ -1879,7 +1957,7 @@
         <v>15212.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -1900,7 +1978,7 @@
         <v>3042.56</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -1918,7 +1996,7 @@
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -1941,7 +2019,7 @@
         <v>12170.24</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -1958,7 +2036,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -1974,7 +2052,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -1996,7 +2074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -2014,7 +2092,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="67"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -2032,7 +2110,7 @@
       <c r="M26" s="69"/>
       <c r="N26" s="67"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -2050,7 +2128,7 @@
       <c r="M27" s="69"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -2072,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -2088,7 +2166,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -2104,7 +2182,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -2124,10 +2202,10 @@
         <v>14260.92</v>
       </c>
       <c r="N31" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -2147,7 +2225,7 @@
         <v>35652.300000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -2168,7 +2246,7 @@
         <v>7130.4600000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -2186,7 +2264,7 @@
       <c r="M34" s="69"/>
       <c r="N34" s="67"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -2209,7 +2287,7 @@
         <v>21391.380000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -2225,7 +2303,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -2241,7 +2319,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -2257,7 +2335,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -2273,7 +2351,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -2289,7 +2367,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -2305,7 +2383,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -2321,7 +2399,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -2337,7 +2415,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -2353,7 +2431,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -2369,7 +2447,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -2385,7 +2463,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -2401,9 +2479,9 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="47"/>
@@ -2434,15 +2512,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
@@ -2464,22 +2542,22 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>8</v>
@@ -2514,9 +2592,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -2533,18 +2611,18 @@
         <v>568546.78</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="10"/>
@@ -2561,24 +2639,24 @@
       <c r="M4" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="100">
         <f>'[1]May 2021'!$K$6</f>
         <v>454804.3</v>
       </c>
-      <c r="O4" s="100"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="101"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2595,24 +2673,24 @@
       <c r="M5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="101">
+      <c r="N5" s="102">
         <f>K47-N14-N21-N28-N35</f>
         <v>454804.30000000005</v>
       </c>
-      <c r="O5" s="102"/>
-    </row>
-    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1">
+      <c r="O5" s="103"/>
+    </row>
+    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>55</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="10"/>
@@ -2630,18 +2708,18 @@
       <c r="N6" s="85"/>
       <c r="O6" s="86"/>
     </row>
-    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="10"/>
@@ -2655,27 +2733,27 @@
         <f>SUM(K6+G7-J7)</f>
         <v>544004.26</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="96">
         <f>N4-N5</f>
         <v>0</v>
       </c>
-      <c r="O7" s="96"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="O7" s="97"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2689,22 +2767,22 @@
         <f t="shared" si="0"/>
         <v>536765.22</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="98"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+      <c r="M8" s="95"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2720,18 +2798,18 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2746,27 +2824,27 @@
         <v>522287.09999999992</v>
       </c>
       <c r="M10" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N10" s="76">
         <v>35224</v>
       </c>
-      <c r="O10" s="90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="O10" s="91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="10"/>
@@ -2781,26 +2859,26 @@
         <v>519086.99999999994</v>
       </c>
       <c r="M11" s="77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N11" s="78">
         <f>N10/5</f>
         <v>7044.8</v>
       </c>
-      <c r="O11" s="91"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" s="92"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>24</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="10"/>
@@ -2815,25 +2893,25 @@
         <v>512042.19999999995</v>
       </c>
       <c r="M12" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N12" s="79">
         <v>4</v>
       </c>
-      <c r="O12" s="91"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O12" s="92"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="10"/>
@@ -2849,20 +2927,20 @@
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="71"/>
-      <c r="O13" s="91"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O13" s="92"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="10"/>
@@ -2877,26 +2955,26 @@
         <v>501711.6</v>
       </c>
       <c r="M14" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" s="72">
         <f>N10-(N11*N12)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="O14" s="92"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14" s="93"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="10"/>
@@ -2912,18 +2990,18 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="10"/>
@@ -2939,18 +3017,18 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="10"/>
@@ -2965,27 +3043,27 @@
         <v>480577.2</v>
       </c>
       <c r="M17" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N17" s="76">
         <v>12170.24</v>
       </c>
-      <c r="O17" s="90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="O17" s="91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="10"/>
@@ -3000,15 +3078,15 @@
         <v>477534.64</v>
       </c>
       <c r="M18" s="77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N18" s="78">
         <f>N17/4</f>
         <v>3042.56</v>
       </c>
-      <c r="O18" s="91"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -3024,14 +3102,14 @@
         <v>477534.64</v>
       </c>
       <c r="M19" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N19" s="79">
         <v>2</v>
       </c>
-      <c r="O19" s="91"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O19" s="92"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -3048,9 +3126,9 @@
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="71"/>
-      <c r="O20" s="91"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O20" s="92"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -3066,15 +3144,15 @@
         <v>477534.64</v>
       </c>
       <c r="M21" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N21" s="72">
         <f>N17-(N18*N19)</f>
         <v>6085.12</v>
       </c>
-      <c r="O21" s="92"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" s="93"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -3091,7 +3169,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -3107,7 +3185,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -3123,16 +3201,16 @@
         <v>477534.64</v>
       </c>
       <c r="M24" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N24" s="76">
         <v>16000.7</v>
       </c>
-      <c r="O24" s="90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
+      <c r="O24" s="91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -3148,15 +3226,15 @@
         <v>477534.64</v>
       </c>
       <c r="M25" s="77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N25" s="78">
         <f>N24/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="O25" s="91"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
+      <c r="O25" s="92"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -3172,14 +3250,14 @@
         <v>477534.64</v>
       </c>
       <c r="M26" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N26" s="79">
         <v>2</v>
       </c>
-      <c r="O26" s="91"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O26" s="92"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -3196,9 +3274,9 @@
       </c>
       <c r="M27" s="80"/>
       <c r="N27" s="71"/>
-      <c r="O27" s="91"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O27" s="92"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -3214,15 +3292,15 @@
         <v>477534.64</v>
       </c>
       <c r="M28" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N28" s="72">
         <f>N24-(N25*N26)</f>
         <v>9600.42</v>
       </c>
-      <c r="O28" s="92"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="O28" s="93"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -3238,7 +3316,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -3254,7 +3332,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -3270,16 +3348,16 @@
         <v>477534.64</v>
       </c>
       <c r="M31" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N31" s="76">
         <v>21391.38</v>
       </c>
-      <c r="O31" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="O31" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -3295,15 +3373,15 @@
         <v>477534.64</v>
       </c>
       <c r="M32" s="77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N32" s="78">
         <f>N31/3</f>
         <v>7130.46</v>
       </c>
-      <c r="O32" s="91"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32" s="92"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -3319,14 +3397,14 @@
         <v>477534.64</v>
       </c>
       <c r="M33" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N33" s="79">
         <v>3</v>
       </c>
-      <c r="O33" s="91"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O33" s="92"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -3343,9 +3421,9 @@
       </c>
       <c r="M34" s="80"/>
       <c r="N34" s="71"/>
-      <c r="O34" s="91"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1">
+      <c r="O34" s="92"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -3361,15 +3439,15 @@
         <v>477534.64</v>
       </c>
       <c r="M35" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N35" s="72">
         <f>N31-(N32*N33)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="92"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="O35" s="93"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -3385,7 +3463,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1">
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -3402,7 +3480,7 @@
       </c>
       <c r="M37" s="73"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -3419,7 +3497,7 @@
       </c>
       <c r="M38" s="74"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -3436,7 +3514,7 @@
       </c>
       <c r="M39" s="73"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -3453,7 +3531,7 @@
       </c>
       <c r="M40" s="73"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -3470,7 +3548,7 @@
       </c>
       <c r="M41" s="74"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -3487,7 +3565,7 @@
       </c>
       <c r="M42" s="73"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" customHeight="1">
+    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -3504,7 +3582,7 @@
       </c>
       <c r="M43" s="74"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -3521,7 +3599,7 @@
       </c>
       <c r="M44" s="73"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -3537,7 +3615,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -3553,7 +3631,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -3569,9 +3647,9 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="47"/>
@@ -3605,4 +3683,1028 @@
   <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.3" header="0.23" footer="0.21"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0696BE18-651E-4818-951D-9E72F36A3681}">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="19" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:15" s="87" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="28">
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="29">
+        <f>SUM(K3+G4-J4)</f>
+        <v>477534.64</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="100">
+        <f>'[1]June 2021'!$K$6</f>
+        <v>454804.3</v>
+      </c>
+      <c r="O4" s="101"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="29">
+        <f t="shared" ref="K5:K47" si="0">SUM(K4+G5-J5)</f>
+        <v>477534.64</v>
+      </c>
+      <c r="M5" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="102">
+        <f>K47-N14-N21-N28-N35</f>
+        <v>454804.30000000005</v>
+      </c>
+      <c r="O5" s="103"/>
+    </row>
+    <row r="6" spans="1:15" s="87" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
+    </row>
+    <row r="7" spans="1:15" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="29">
+        <f>SUM(K6+G7-J7)</f>
+        <v>477534.64</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="96">
+        <f>N4-N5</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="97"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M10" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="76">
+        <v>7044.8</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M11" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="78">
+        <f>N10/1</f>
+        <v>7044.8</v>
+      </c>
+      <c r="O11" s="92"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="79">
+        <v>0</v>
+      </c>
+      <c r="O12" s="92"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M13" s="80"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="92"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="72">
+        <f>N10-(N11*N12)</f>
+        <v>7044.8</v>
+      </c>
+      <c r="O14" s="93"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="76">
+        <v>6085.12</v>
+      </c>
+      <c r="O17" s="91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M18" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="78">
+        <f>N17/2</f>
+        <v>3042.56</v>
+      </c>
+      <c r="O18" s="92"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="79">
+        <v>0</v>
+      </c>
+      <c r="O19" s="92"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M20" s="80"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="92"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="72">
+        <f>N17-(N18*N19)</f>
+        <v>6085.12</v>
+      </c>
+      <c r="O21" s="93"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M24" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="76">
+        <v>9600.42</v>
+      </c>
+      <c r="O24" s="91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M25" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="78">
+        <f>N24/3</f>
+        <v>3200.14</v>
+      </c>
+      <c r="O25" s="92"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M26" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="79">
+        <v>0</v>
+      </c>
+      <c r="O26" s="92"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M27" s="80"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="92"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M28" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="72">
+        <f>N24-(N25*N26)</f>
+        <v>9600.42</v>
+      </c>
+      <c r="O28" s="93"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M31" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="76">
+        <v>21391.38</v>
+      </c>
+      <c r="O31" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="78">
+        <f>N31/3</f>
+        <v>7130.46</v>
+      </c>
+      <c r="O32" s="92"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M33" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="79">
+        <v>3</v>
+      </c>
+      <c r="O33" s="92"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M34" s="80"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="92"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M35" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="72">
+        <f>N31-(N32*N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="93"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M37" s="73"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M38" s="74"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M39" s="73"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M40" s="73"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M41" s="74"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M42" s="73"/>
+    </row>
+    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M43" s="74"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+      <c r="M44" s="73"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="29">
+        <f t="shared" si="0"/>
+        <v>477534.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="18">
+        <f>SUM(G3:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="17">
+        <f>SUM(J3:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="O17:O21"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O31:O35"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="O10:O14"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.34" bottom="0.3" header="0.23" footer="0.21"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A069912-7FC5-4C54-ABC3-055650F901FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
@@ -25,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'June 2021'!$A$2:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'May 2021'!$A$2:$O$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -268,11 +262,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,7 +1064,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1089,7 +1083,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="K6">
-            <v>454804.3</v>
+            <v>363609.8</v>
           </cell>
         </row>
       </sheetData>
@@ -1141,7 +1135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1173,27 +1167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,24 +1201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1418,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1426,7 +1384,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1445,7 +1403,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="88" t="s">
         <v>74</v>
       </c>
@@ -1460,7 +1418,7 @@
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
     </row>
-    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="56" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="26" t="s">
         <v>18</v>
       </c>
@@ -1514,7 +1472,7 @@
         <v>666070.9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1505,7 @@
         <v>506029</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1538,7 @@
         <v>506028.99999999965</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="56" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1564,7 @@
         <v>644394.69999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="56" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -1639,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1625,7 @@
       <c r="N8" s="89"/>
       <c r="O8" s="90"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1652,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -1758,7 +1716,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -1789,7 +1747,7 @@
         <v>7239.0399999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
@@ -1817,7 +1775,7 @@
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1808,7 @@
         <v>28956.159999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
@@ -1877,7 +1835,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1904,7 +1862,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="37"/>
@@ -1957,7 +1915,7 @@
         <v>15212.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -1978,7 +1936,7 @@
         <v>3042.56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -1996,7 +1954,7 @@
       <c r="M20" s="69"/>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -2019,7 +1977,7 @@
         <v>12170.24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -2036,7 +1994,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -2052,7 +2010,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -2074,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -2092,7 +2050,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="67"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -2110,7 +2068,7 @@
       <c r="M26" s="69"/>
       <c r="N26" s="67"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -2128,7 +2086,7 @@
       <c r="M27" s="69"/>
       <c r="N27" s="69"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -2150,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -2166,7 +2124,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -2182,7 +2140,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -2205,7 +2163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -2225,7 +2183,7 @@
         <v>35652.300000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -2246,7 +2204,7 @@
         <v>7130.4600000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -2264,7 +2222,7 @@
       <c r="M34" s="69"/>
       <c r="N34" s="67"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -2287,7 +2245,7 @@
         <v>21391.380000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -2303,7 +2261,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -2319,7 +2277,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -2335,7 +2293,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -2351,7 +2309,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -2367,7 +2325,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -2383,7 +2341,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -2399,7 +2357,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -2415,7 +2373,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -2431,7 +2389,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -2447,7 +2405,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -2463,7 +2421,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -2479,7 +2437,7 @@
         <v>568546.77999999968</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>73</v>
       </c>
@@ -2512,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2520,7 +2478,7 @@
       <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
@@ -2542,7 +2500,7 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="88" t="s">
         <v>71</v>
       </c>
@@ -2557,7 +2515,7 @@
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
     </row>
-    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -2611,7 +2569,7 @@
         <v>568546.78</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2603,7 @@
       </c>
       <c r="O4" s="101"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -2679,7 +2637,7 @@
       </c>
       <c r="O5" s="103"/>
     </row>
-    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="66" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>51</v>
       </c>
@@ -2708,7 +2666,7 @@
       <c r="N6" s="85"/>
       <c r="O6" s="86"/>
     </row>
-    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
@@ -2742,7 +2700,7 @@
       </c>
       <c r="O7" s="97"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>56</v>
       </c>
@@ -2771,7 +2729,7 @@
       <c r="N8" s="98"/>
       <c r="O8" s="99"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
@@ -2798,7 +2756,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
@@ -2833,7 +2791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
@@ -2867,7 +2825,7 @@
       </c>
       <c r="O11" s="92"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -2900,7 +2858,7 @@
       </c>
       <c r="O12" s="92"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
@@ -2929,7 +2887,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="92"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2963,7 +2921,7 @@
       </c>
       <c r="O14" s="93"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -2990,7 +2948,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +2975,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
@@ -3052,7 +3010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -3086,7 +3044,7 @@
       </c>
       <c r="O18" s="92"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -3109,7 +3067,7 @@
       </c>
       <c r="O19" s="92"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -3128,7 +3086,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="92"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -3152,7 +3110,7 @@
       </c>
       <c r="O21" s="93"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -3169,7 +3127,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -3185,7 +3143,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -3210,7 +3168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -3234,7 +3192,7 @@
       </c>
       <c r="O25" s="92"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -3257,7 +3215,7 @@
       </c>
       <c r="O26" s="92"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -3276,7 +3234,7 @@
       <c r="N27" s="71"/>
       <c r="O27" s="92"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -3300,7 +3258,7 @@
       </c>
       <c r="O28" s="93"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -3316,7 +3274,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -3332,7 +3290,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -3357,7 +3315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -3381,7 +3339,7 @@
       </c>
       <c r="O32" s="92"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -3404,7 +3362,7 @@
       </c>
       <c r="O33" s="92"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -3423,7 +3381,7 @@
       <c r="N34" s="71"/>
       <c r="O34" s="92"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -3447,7 +3405,7 @@
       </c>
       <c r="O35" s="93"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -3463,7 +3421,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -3480,7 +3438,7 @@
       </c>
       <c r="M37" s="73"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -3497,7 +3455,7 @@
       </c>
       <c r="M38" s="74"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -3514,7 +3472,7 @@
       </c>
       <c r="M39" s="73"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -3531,7 +3489,7 @@
       </c>
       <c r="M40" s="73"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -3548,7 +3506,7 @@
       </c>
       <c r="M41" s="74"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -3565,7 +3523,7 @@
       </c>
       <c r="M42" s="73"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="17.25" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -3582,7 +3540,7 @@
       </c>
       <c r="M43" s="74"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -3599,7 +3557,7 @@
       </c>
       <c r="M44" s="73"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -3615,7 +3573,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -3631,7 +3589,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -3647,7 +3605,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>72</v>
       </c>
@@ -3686,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0696BE18-651E-4818-951D-9E72F36A3681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -3694,7 +3652,7 @@
       <selection pane="bottomLeft" activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
@@ -3716,7 +3674,7 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="88" t="s">
         <v>69</v>
       </c>
@@ -3731,7 +3689,7 @@
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
     </row>
-    <row r="2" spans="1:15" s="87" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="87" customFormat="1" ht="45.75" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -3766,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>68</v>
       </c>
@@ -3785,7 +3743,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="59"/>
@@ -3805,11 +3763,11 @@
       </c>
       <c r="N4" s="100">
         <f>'[1]June 2021'!$K$6</f>
-        <v>454804.3</v>
+        <v>363609.8</v>
       </c>
       <c r="O4" s="101"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="59"/>
@@ -3833,7 +3791,7 @@
       </c>
       <c r="O5" s="103"/>
     </row>
-    <row r="6" spans="1:15" s="87" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="87" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="59"/>
@@ -3852,7 +3810,7 @@
       <c r="N6" s="85"/>
       <c r="O6" s="86"/>
     </row>
-    <row r="7" spans="1:15" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="87" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="59"/>
@@ -3872,11 +3830,11 @@
       </c>
       <c r="N7" s="96">
         <f>N4-N5</f>
-        <v>0</v>
+        <v>-91194.500000000058</v>
       </c>
       <c r="O7" s="97"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="C8" s="59"/>
@@ -3895,7 +3853,7 @@
       <c r="N8" s="98"/>
       <c r="O8" s="99"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="59"/>
@@ -3912,7 +3870,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="C10" s="59"/>
@@ -3937,7 +3895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="59"/>
@@ -3961,7 +3919,7 @@
       </c>
       <c r="O11" s="92"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="59"/>
@@ -3984,7 +3942,7 @@
       </c>
       <c r="O12" s="92"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="59"/>
@@ -4003,7 +3961,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="92"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="59"/>
@@ -4027,7 +3985,7 @@
       </c>
       <c r="O14" s="93"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="59"/>
@@ -4044,7 +4002,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="59"/>
@@ -4061,7 +4019,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="10"/>
       <c r="B17" s="12"/>
       <c r="C17" s="59"/>
@@ -4086,7 +4044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="59"/>
@@ -4110,7 +4068,7 @@
       </c>
       <c r="O18" s="92"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="37"/>
@@ -4133,7 +4091,7 @@
       </c>
       <c r="O19" s="92"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="37"/>
@@ -4152,7 +4110,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="92"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="37"/>
@@ -4176,7 +4134,7 @@
       </c>
       <c r="O21" s="93"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="37"/>
@@ -4193,7 +4151,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="37"/>
@@ -4209,7 +4167,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="37"/>
@@ -4234,7 +4192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="37"/>
@@ -4258,7 +4216,7 @@
       </c>
       <c r="O25" s="92"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="12"/>
       <c r="C26" s="37"/>
@@ -4281,7 +4239,7 @@
       </c>
       <c r="O26" s="92"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
       <c r="B27" s="12"/>
       <c r="C27" s="37"/>
@@ -4300,7 +4258,7 @@
       <c r="N27" s="71"/>
       <c r="O27" s="92"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="37"/>
@@ -4324,7 +4282,7 @@
       </c>
       <c r="O28" s="93"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="37"/>
@@ -4340,7 +4298,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37"/>
@@ -4356,7 +4314,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
       <c r="C31" s="37"/>
@@ -4381,7 +4339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="37"/>
@@ -4405,7 +4363,7 @@
       </c>
       <c r="O32" s="92"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="37"/>
@@ -4428,7 +4386,7 @@
       </c>
       <c r="O33" s="92"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="37"/>
@@ -4447,7 +4405,7 @@
       <c r="N34" s="71"/>
       <c r="O34" s="92"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="37"/>
@@ -4471,7 +4429,7 @@
       </c>
       <c r="O35" s="93"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="37"/>
@@ -4487,7 +4445,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="13"/>
       <c r="C37" s="37"/>
@@ -4504,7 +4462,7 @@
       </c>
       <c r="M37" s="73"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="37"/>
@@ -4521,7 +4479,7 @@
       </c>
       <c r="M38" s="74"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="37"/>
@@ -4538,7 +4496,7 @@
       </c>
       <c r="M39" s="73"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
       <c r="C40" s="37"/>
@@ -4555,7 +4513,7 @@
       </c>
       <c r="M40" s="73"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="13"/>
       <c r="C41" s="37"/>
@@ -4572,7 +4530,7 @@
       </c>
       <c r="M41" s="74"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="37"/>
@@ -4589,7 +4547,7 @@
       </c>
       <c r="M42" s="73"/>
     </row>
-    <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="17.25" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="37"/>
@@ -4606,7 +4564,7 @@
       </c>
       <c r="M43" s="74"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="37"/>
@@ -4623,7 +4581,7 @@
       </c>
       <c r="M44" s="73"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="37"/>
@@ -4639,7 +4597,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="10"/>
       <c r="B46" s="9"/>
       <c r="C46" s="37"/>
@@ -4655,7 +4613,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
@@ -4671,7 +4629,7 @@
         <v>477534.64</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1">
       <c r="A48" s="54" t="s">
         <v>70</v>
       </c>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="86">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -257,6 +257,39 @@
   </si>
   <si>
     <t>ORIGINAL TEA STOCK REGISTER FOR THE MONTH OF APRIL 2021</t>
+  </si>
+  <si>
+    <t>03.06.2021</t>
+  </si>
+  <si>
+    <t>5Kg-02</t>
+  </si>
+  <si>
+    <t>Part no. 01</t>
+  </si>
+  <si>
+    <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>05.06.2021</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>Gsl-5</t>
+  </si>
+  <si>
+    <t>Gsl-05</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>12.06.2021</t>
+  </si>
+  <si>
+    <t>15.06.2021</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1105,7 @@
       <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="K6">
@@ -1380,7 +1413,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2474,8 +2507,8 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3649,7 +3682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4:O4"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3744,19 +3777,29 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="34"/>
       <c r="F4" s="10"/>
       <c r="G4" s="51"/>
       <c r="H4" s="14"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="29">
+        <v>7044.84</v>
+      </c>
       <c r="K4" s="29">
         <f>SUM(K3+G4-J4)</f>
-        <v>477534.64</v>
+        <v>470489.8</v>
       </c>
       <c r="M4" s="82" t="s">
         <v>13</v>
@@ -3768,154 +3811,224 @@
       <c r="O4" s="101"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="29">
+        <v>3200.1</v>
+      </c>
       <c r="K5" s="29">
         <f t="shared" ref="K5:K47" si="0">SUM(K4+G5-J5)</f>
-        <v>477534.64</v>
+        <v>467289.7</v>
       </c>
       <c r="M5" s="83" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="102">
         <f>K47-N14-N21-N28-N35</f>
-        <v>454804.30000000005</v>
+        <v>363609.8</v>
       </c>
       <c r="O5" s="103"/>
     </row>
     <row r="6" spans="1:15" s="87" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="E6" s="33"/>
       <c r="F6" s="10"/>
       <c r="G6" s="51"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="29">
+        <v>7064</v>
+      </c>
       <c r="K6" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>460225.7</v>
       </c>
       <c r="M6" s="84"/>
       <c r="N6" s="85"/>
       <c r="O6" s="86"/>
     </row>
     <row r="7" spans="1:15" s="87" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="A7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="33"/>
       <c r="F7" s="10"/>
       <c r="G7" s="51"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="29">
+        <v>7064</v>
+      </c>
       <c r="K7" s="29">
         <f>SUM(K6+G7-J7)</f>
-        <v>477534.64</v>
+        <v>453161.7</v>
       </c>
       <c r="M7" s="94" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="96">
         <f>N4-N5</f>
-        <v>-91194.500000000058</v>
+        <v>0</v>
       </c>
       <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="A8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="29">
+        <v>3200.1</v>
+      </c>
       <c r="K8" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>449961.60000000003</v>
       </c>
       <c r="M8" s="95"/>
       <c r="N8" s="98"/>
       <c r="O8" s="99"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="A9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="29">
+        <v>7457.9</v>
+      </c>
       <c r="K9" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>442503.7</v>
       </c>
       <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="A10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="29">
+        <v>3200.18</v>
+      </c>
       <c r="K10" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>439303.52</v>
       </c>
       <c r="M10" s="75" t="s">
         <v>45</v>
       </c>
       <c r="N10" s="76">
-        <v>7044.8</v>
+        <v>37289.5</v>
       </c>
       <c r="O10" s="91" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="34"/>
       <c r="F11" s="10"/>
       <c r="G11" s="51"/>
       <c r="H11" s="36"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="29">
+        <v>7457.9</v>
+      </c>
       <c r="K11" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M11" s="77" t="s">
         <v>46</v>
       </c>
       <c r="N11" s="78">
-        <f>N10/1</f>
-        <v>7044.8</v>
+        <f>N10/5</f>
+        <v>7457.9</v>
       </c>
       <c r="O11" s="92"/>
     </row>
@@ -3932,13 +4045,13 @@
       <c r="J12" s="11"/>
       <c r="K12" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M12" s="77" t="s">
         <v>47</v>
       </c>
       <c r="N12" s="79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="92"/>
     </row>
@@ -3955,7 +4068,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="71"/>
@@ -3974,14 +4087,14 @@
       <c r="J14" s="11"/>
       <c r="K14" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M14" s="81" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="72">
         <f>N10-(N11*N12)</f>
-        <v>7044.8</v>
+        <v>22373.7</v>
       </c>
       <c r="O14" s="93"/>
     </row>
@@ -3998,7 +4111,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="N15" s="7"/>
     </row>
@@ -4015,7 +4128,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="N16" s="7"/>
     </row>
@@ -4032,7 +4145,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M17" s="75" t="s">
         <v>45</v>
@@ -4057,7 +4170,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M18" s="77" t="s">
         <v>46</v>
@@ -4081,7 +4194,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M19" s="77" t="s">
         <v>47</v>
@@ -4104,7 +4217,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="71"/>
@@ -4123,7 +4236,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M21" s="81" t="s">
         <v>48</v>
@@ -4147,7 +4260,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="N22" s="7"/>
     </row>
@@ -4164,7 +4277,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
@@ -4180,13 +4293,13 @@
       <c r="J24" s="11"/>
       <c r="K24" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M24" s="75" t="s">
         <v>45</v>
       </c>
       <c r="N24" s="76">
-        <v>9600.42</v>
+        <v>18585</v>
       </c>
       <c r="O24" s="91" t="s">
         <v>61</v>
@@ -4205,14 +4318,14 @@
       <c r="J25" s="11"/>
       <c r="K25" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M25" s="77" t="s">
         <v>46</v>
       </c>
       <c r="N25" s="78">
-        <f>N24/3</f>
-        <v>3200.14</v>
+        <f>N24/5</f>
+        <v>3717</v>
       </c>
       <c r="O25" s="92"/>
     </row>
@@ -4229,7 +4342,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M26" s="77" t="s">
         <v>47</v>
@@ -4252,7 +4365,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M27" s="80"/>
       <c r="N27" s="71"/>
@@ -4271,14 +4384,14 @@
       <c r="J28" s="11"/>
       <c r="K28" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M28" s="81" t="s">
         <v>48</v>
       </c>
       <c r="N28" s="72">
         <f>N24-(N25*N26)</f>
-        <v>9600.42</v>
+        <v>18585</v>
       </c>
       <c r="O28" s="93"/>
     </row>
@@ -4295,7 +4408,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
@@ -4311,7 +4424,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4327,16 +4440,16 @@
       <c r="J31" s="11"/>
       <c r="K31" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M31" s="75" t="s">
         <v>45</v>
       </c>
       <c r="N31" s="76">
-        <v>21391.38</v>
+        <v>35320</v>
       </c>
       <c r="O31" s="91" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4352,14 +4465,14 @@
       <c r="J32" s="11"/>
       <c r="K32" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M32" s="77" t="s">
         <v>46</v>
       </c>
       <c r="N32" s="78">
-        <f>N31/3</f>
-        <v>7130.46</v>
+        <f>N31/5</f>
+        <v>7064</v>
       </c>
       <c r="O32" s="92"/>
     </row>
@@ -4376,13 +4489,13 @@
       <c r="J33" s="11"/>
       <c r="K33" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M33" s="77" t="s">
         <v>47</v>
       </c>
       <c r="N33" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="92"/>
     </row>
@@ -4399,7 +4512,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M34" s="80"/>
       <c r="N34" s="71"/>
@@ -4418,14 +4531,14 @@
       <c r="J35" s="11"/>
       <c r="K35" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="72">
         <f>N31-(N32*N33)</f>
-        <v>0</v>
+        <v>21192</v>
       </c>
       <c r="O35" s="93"/>
     </row>
@@ -4442,7 +4555,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -4458,7 +4571,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M37" s="73"/>
     </row>
@@ -4475,7 +4588,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M38" s="74"/>
     </row>
@@ -4492,7 +4605,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M39" s="73"/>
     </row>
@@ -4509,7 +4622,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M40" s="73"/>
     </row>
@@ -4526,7 +4639,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M41" s="74"/>
     </row>
@@ -4543,7 +4656,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M42" s="73"/>
     </row>
@@ -4560,7 +4673,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M43" s="74"/>
     </row>
@@ -4577,7 +4690,7 @@
       <c r="J44" s="30"/>
       <c r="K44" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
       <c r="M44" s="73"/>
     </row>
@@ -4594,7 +4707,7 @@
       <c r="J45" s="30"/>
       <c r="K45" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4610,7 +4723,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1">
@@ -4626,7 +4739,7 @@
       <c r="J47" s="44"/>
       <c r="K47" s="29">
         <f t="shared" si="0"/>
-        <v>477534.64</v>
+        <v>431845.62</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1">
@@ -4646,7 +4759,7 @@
       <c r="I48" s="49"/>
       <c r="J48" s="17">
         <f>SUM(J3:J47)</f>
-        <v>0</v>
+        <v>45689.020000000004</v>
       </c>
       <c r="K48" s="19"/>
     </row>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
@@ -1103,9 +1103,13 @@
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="K6">
@@ -1120,6 +1124,16 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="K6">
+            <v>114072.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1412,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3680,7 +3694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>

--- a/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
+++ b/ORIGINAL TEA STOCK REGISTER-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="25" r:id="rId1"/>
@@ -1103,6 +1103,12 @@
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
+      <sheetName val="November 2021"/>
+      <sheetName val="December 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1116,10 +1122,34 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="K6">
-            <v>363609.8</v>
+            <v>326076.09999999998</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="15">
+          <cell r="N15">
+            <v>104683.68</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="K6">
+            <v>149997.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="15">
+          <cell r="N15">
+            <v>43368.410400000008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1412,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3680,7 +3710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
@@ -3806,7 +3836,7 @@
       </c>
       <c r="N4" s="100">
         <f>'[1]June 2021'!$K$6</f>
-        <v>363609.8</v>
+        <v>326076.09999999998</v>
       </c>
       <c r="O4" s="101"/>
     </row>
@@ -3903,7 +3933,7 @@
       </c>
       <c r="N7" s="96">
         <f>N4-N5</f>
-        <v>0</v>
+        <v>-37533.700000000012</v>
       </c>
       <c r="O7" s="97"/>
     </row>
